--- a/docs/画面項目定義書/network_detail.xlsx
+++ b/docs/画面項目定義書/network_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E7CBC1-44DC-4D07-8477-67AF8192E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9871AC-15E5-428D-B77E-0B420729629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -265,16 +265,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>サブネット追加モーダルを表示</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力したネットワーク名を確定</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -350,6 +340,16 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブネット追加モーダルへ遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1224,21 +1224,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1258,7 +1258,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1267,7 +1267,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1276,7 +1276,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1309,7 +1309,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -1418,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1453,10 +1453,10 @@
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1542,45 +1542,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="C24" s="23"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="E25" s="25"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="E26" s="25"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="21">
         <v>21</v>
       </c>

--- a/docs/画面項目定義書/network_detail.xlsx
+++ b/docs/画面項目定義書/network_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9871AC-15E5-428D-B77E-0B420729629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191A25F-C035-4CF4-B0A3-6D3D92A28818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>日本工学院</t>
   </si>
@@ -58,16 +58,6 @@
   </si>
   <si>
     <t>表示</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>Ref(管理者サイドバー)</t>
-    <rPh sb="4" eb="7">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表示</t>
@@ -77,48 +67,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>操作ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>繰り返しで表示、削除ボタン・編集ボタンを表示</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>利用者サイドバー</t>
     <rPh sb="0" eb="3">
       <t>リヨウシャ</t>
@@ -130,82 +78,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>キャンセル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトを取得し、表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>仮想ネットワーク詳細編集画面</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サブネット追加ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サブネットを追加</t>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>仮想ネットワーク詳細・編集</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックスタイトル「ネットワーク名」</t>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックス「ネットワーク名」</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ネットワーク名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -213,23 +85,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ネットワーク名保存ボタン</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ネットワーク名キャンセルボタン</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>サブネット一覧タイトル</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -244,112 +99,78 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インバウンドルール「サブネット名」</t>
-    <rPh sb="15" eb="16">
+    <t>Ref(利用者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティより</t>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティを取得し、表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想ネットワーク詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブネット名</t>
+    <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インバウンドルール「アドレス範囲」</t>
-    <rPh sb="14" eb="16">
+    <t>アドレス範囲</t>
+    <rPh sb="4" eb="6">
       <t>ハンイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インバウンドルール「外部接続」</t>
-    <rPh sb="10" eb="14">
+    <t>外部接続</t>
+    <rPh sb="0" eb="4">
       <t>ガイブセツゾク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力したネットワーク名を確定</t>
+    <t>仮想ネットワーク詳細</t>
     <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タイトル「ネットワーク名」</t>
+    <rPh sb="11" eb="12">
       <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力したネットワーク名をクリア</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>非表示</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>繰り返しで表示、押下時利用者詳細/編集画面へ遷移</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>削除ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>繰り返しで表示、押下時確認ポップアップを表示</t>
-    <rPh sb="8" eb="11">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サブネット追加モーダルへ遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1224,21 +1045,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1070,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1258,7 +1079,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1267,7 +1088,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1276,7 +1097,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
@@ -1289,9 +1110,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="11"/>
@@ -1300,7 +1121,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1309,7 +1130,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1332,255 +1153,189 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="38"/>
       <c r="E12" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" ht="24">
+        <v>18</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="31">
         <v>5</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+      <c r="B13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="31">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+      <c r="B14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24">
       <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+      <c r="B15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="31"/>
       <c r="E16" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>19</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24">
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
+    </row>
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1591,7 +1346,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1599,7 +1354,7 @@
       <c r="C24" s="23"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1608,7 +1363,7 @@
       <c r="E25" s="25"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1617,7 +1372,7 @@
       <c r="E26" s="25"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1628,7 +1383,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1639,7 +1394,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="21">
         <v>21</v>
       </c>
